--- a/test/fixtures/excel_glider.xlsx
+++ b/test/fixtures/excel_glider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="9408" windowHeight="7464" tabRatio="754" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="9408" windowHeight="7464" tabRatio="754" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="How to" sheetId="58" r:id="rId1"/>
@@ -2357,7 +2357,14 @@
     <cellStyle name="Titre 1" xfId="2" builtinId="16"/>
     <cellStyle name="Titre 3" xfId="3" builtinId="18"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2657,16 +2664,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B4:D7" totalsRowShown="0">
   <autoFilter ref="B4:D7"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Description" dataDxfId="3"/>
-    <tableColumn id="2" name="Priorité " dataDxfId="2"/>
-    <tableColumn id="3" name="complétion" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="4"/>
+    <tableColumn id="2" name="Priorité " dataDxfId="3"/>
+    <tableColumn id="3" name="complétion" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B4:E9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B4:E9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B4:E9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Version"/>
@@ -3473,7 +3480,7 @@
   </sheetPr>
   <dimension ref="A1:P348"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -11315,6 +11322,11 @@
     <mergeCell ref="B312:P312"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="B6:P166">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B1048572="false"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I311">
       <formula1>type_list</formula1>
@@ -11342,7 +11354,7 @@
   </sheetPr>
   <dimension ref="B1:P57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
